--- a/src/test/resources/properties/DieticianAPI.xlsx
+++ b/src/test/resources/properties/DieticianAPI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cfb26f557d7176db/Desktop/NEWCLONE/APIDietician/src/test/resources/properties/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="641" documentId="13_ncr:801_{43A3D9C7-213D-4189-AF66-25386FDF7CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E24B30DA-C5F5-48EA-9D6E-E8D998A1B0C1}"/>
+  <xr:revisionPtr revIDLastSave="675" documentId="13_ncr:801_{43A3D9C7-213D-4189-AF66-25386FDF7CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B349A246-04EB-49C8-B29B-8AE73835F024}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="982" activeTab="2" xr2:uid="{C4EDB30F-70E9-4635-AD8E-A92AAC9029B6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="982" activeTab="1" xr2:uid="{C4EDB30F-70E9-4635-AD8E-A92AAC9029B6}"/>
   </bookViews>
   <sheets>
     <sheet name="GETRecipes" sheetId="7" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1849" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1849" uniqueCount="437">
   <si>
     <t>MorbidityName</t>
   </si>
@@ -131,12 +131,6 @@
     <t>Morbidity Test ID</t>
   </si>
   <si>
-    <t>Missing Items OR Invalid Entry.Check on ['MorbidityName']</t>
-  </si>
-  <si>
-    <t>PRE_HY</t>
-  </si>
-  <si>
     <t>HYP_BG</t>
   </si>
   <si>
@@ -155,9 +149,6 @@
     <t>100&lt;</t>
   </si>
   <si>
-    <t>Missing Items Or Invalid Entry.check on ['MorbidityTestName']</t>
-  </si>
-  <si>
     <t>Missing Items Or Invalid Entry.check on ['MorbidityTestUnit']</t>
   </si>
   <si>
@@ -171,9 +162,6 @@
   </si>
   <si>
     <t>*******</t>
-  </si>
-  <si>
-    <t>error Occurred</t>
   </si>
   <si>
     <t xml:space="preserve">Hypo   thyrodism </t>
@@ -1329,22 +1317,37 @@
     <t>Get</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>STR_STR</t>
-  </si>
-  <si>
-    <t>Diabetes</t>
-  </si>
-  <si>
-    <t>DIA_BLO</t>
-  </si>
-  <si>
     <t>PostMorbidity</t>
   </si>
   <si>
-    <t>201</t>
+    <t> Blood P%essu</t>
+  </si>
+  <si>
+    <t> BL_ 12</t>
+  </si>
+  <si>
+    <t>THY_T4</t>
+  </si>
+  <si>
+    <t>PRE_BL</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>error occurred</t>
+  </si>
+  <si>
+    <t>Missing Items OR Invalid Entry.Check on ['MorbidityName','MorbidityMarkerRef']</t>
+  </si>
+  <si>
+    <t>Missing Items Or Invalid Entry.Check on ['MorbidityTestName']</t>
+  </si>
+  <si>
+    <t>PreDiabetes8</t>
+  </si>
+  <si>
+    <t>PreDiabetes9</t>
   </si>
 </sst>
 </file>
@@ -1581,7 +1584,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1732,18 +1735,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1758,16 +1751,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1777,6 +1761,18 @@
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2111,33 +2107,33 @@
   <sheetData>
     <row r="1" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="53" t="s">
         <v>115</v>
-      </c>
-      <c r="B1" s="51" t="s">
-        <v>116</v>
-      </c>
-      <c r="C1" s="51" t="s">
-        <v>117</v>
-      </c>
-      <c r="D1" s="51" t="s">
-        <v>118</v>
-      </c>
-      <c r="E1" s="53" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="49" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C2" s="49" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D2" s="49" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E2" s="52">
         <v>200</v>
@@ -2145,16 +2141,16 @@
     </row>
     <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="49" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C3" s="49" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D3" s="49" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E3" s="52">
         <v>200</v>
@@ -2164,10 +2160,10 @@
       <c r="A4" s="49"/>
       <c r="B4" s="49"/>
       <c r="C4" s="49" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D4" s="49" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E4" s="52">
         <v>200</v>
@@ -2178,7 +2174,7 @@
       <c r="B5" s="49"/>
       <c r="C5" s="49"/>
       <c r="D5" s="49" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E5" s="52">
         <v>200</v>
@@ -2186,16 +2182,16 @@
     </row>
     <row r="6" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="49" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C6" s="49" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D6" s="49" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E6" s="52">
         <v>404</v>
@@ -2203,16 +2199,16 @@
     </row>
     <row r="7" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="49" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C7" s="49" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D7" s="49" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E7" s="52">
         <v>404</v>
@@ -2220,14 +2216,14 @@
     </row>
     <row r="8" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="49" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C8" s="49"/>
       <c r="D8" s="49" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E8" s="52">
         <v>404</v>
@@ -2236,11 +2232,11 @@
     <row r="9" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="49"/>
       <c r="B9" s="49" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C9" s="49"/>
       <c r="D9" s="49" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E9" s="52">
         <v>404</v>
@@ -2251,7 +2247,7 @@
       <c r="B10" s="49"/>
       <c r="C10" s="49"/>
       <c r="D10" s="49" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E10" s="52">
         <v>404</v>
@@ -2262,7 +2258,7 @@
       <c r="B11" s="49"/>
       <c r="C11" s="49"/>
       <c r="D11" s="49" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E11" s="52">
         <v>404</v>
@@ -2273,7 +2269,7 @@
       <c r="B12" s="49"/>
       <c r="C12" s="49"/>
       <c r="D12" s="49" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E12" s="52">
         <v>404</v>
@@ -2284,7 +2280,7 @@
       <c r="B13" s="49"/>
       <c r="C13" s="49"/>
       <c r="D13" s="52" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E13" s="52">
         <v>404</v>
@@ -2313,88 +2309,88 @@
   <sheetData>
     <row r="1" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="47" t="s">
+        <v>387</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>388</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>389</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>391</v>
-      </c>
-      <c r="B1" s="47" t="s">
-        <v>392</v>
-      </c>
-      <c r="C1" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1" s="47" t="s">
-        <v>393</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>394</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="47" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C2" s="10">
         <v>200</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="E2" s="47" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C3" s="10">
         <v>404</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C4" s="10">
         <v>404</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="47" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C5" s="10">
         <v>404</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
@@ -2435,22 +2431,22 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
+        <v>394</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>397</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>398</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="F1" s="20" t="s">
         <v>399</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>400</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>401</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>402</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>403</v>
       </c>
       <c r="G1" s="20" t="s">
         <v>2</v>
@@ -2461,22 +2457,22 @@
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D2" s="20">
         <v>234083689</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="F2" s="48" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G2" s="20">
         <v>200</v>
@@ -2485,26 +2481,26 @@
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
+        <v>403</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>404</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>405</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>406</v>
+      </c>
+      <c r="E3" s="20" t="s">
         <v>407</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>409</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>410</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>411</v>
       </c>
       <c r="F3" s="20"/>
       <c r="G3" s="20">
         <v>404</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2512,37 +2508,37 @@
         <v>1234</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C4" s="20" t="s">
+        <v>406</v>
+      </c>
+      <c r="D4" s="20" t="s">
         <v>410</v>
       </c>
-      <c r="D4" s="20" t="s">
-        <v>414</v>
-      </c>
       <c r="E4" s="20" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F4" s="20"/>
       <c r="G4" s="20">
         <v>404</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C5" s="20">
         <v>7870</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="20"/>
@@ -2550,18 +2546,18 @@
         <v>404</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
@@ -2570,15 +2566,15 @@
         <v>404</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
@@ -2588,13 +2584,13 @@
         <v>404</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20"/>
       <c r="B8" s="20" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
@@ -2604,19 +2600,19 @@
         <v>404</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20"/>
       <c r="B9" s="48" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
       <c r="F9" s="20" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G9" s="20">
         <v>200</v>
@@ -2663,42 +2659,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="B5" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -2710,424 +2706,424 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61799CA-678F-46A4-8B74-9041A1E48EF1}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" style="60" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" style="60" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" style="60" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="60" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" style="60" customWidth="1"/>
-    <col min="7" max="7" width="52" style="69" customWidth="1"/>
-    <col min="8" max="8" width="34.5703125" style="60" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="60"/>
+    <col min="1" max="1" width="15.140625" style="59" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" style="59" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" style="59" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" style="59" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="59" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" style="59" customWidth="1"/>
+    <col min="7" max="7" width="52" style="70" customWidth="1"/>
+    <col min="8" max="8" width="34.5703125" style="59" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="59"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="59" t="s">
+      <c r="G1" s="67" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="58" t="s">
+        <v>435</v>
+      </c>
+      <c r="B2" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="63" t="s">
+        <v>430</v>
+      </c>
+      <c r="F2" s="60" t="s">
+        <v>431</v>
+      </c>
+      <c r="G2" s="68" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="58" t="s">
+        <v>436</v>
+      </c>
+      <c r="B3" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>430</v>
+      </c>
+      <c r="F3" s="60" t="s">
+        <v>431</v>
+      </c>
+      <c r="G3" s="68" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="61">
+        <v>25689545</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="59">
+        <v>400</v>
+      </c>
+      <c r="G4" s="69" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="59">
+        <v>400</v>
+      </c>
+      <c r="G5" s="69" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="C6" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="59">
+        <v>400</v>
+      </c>
+      <c r="G6" s="69" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="59">
+        <v>400</v>
+      </c>
+      <c r="G7" s="69" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="59">
+        <v>5689562</v>
+      </c>
+      <c r="B8" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="59">
+        <v>400</v>
+      </c>
+      <c r="G8" s="69" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="59">
+        <v>400</v>
+      </c>
+      <c r="G9" s="69" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="59">
+        <v>400</v>
+      </c>
+      <c r="G10" s="69" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="59">
+        <v>400</v>
+      </c>
+      <c r="G11" s="69" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="59">
+        <v>400</v>
+      </c>
+      <c r="G12" s="69" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="59">
+        <v>400</v>
+      </c>
+      <c r="G13" s="68" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="62" t="s">
+      <c r="C14" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="70" t="s">
+      <c r="F14" s="59">
+        <v>400</v>
+      </c>
+      <c r="G14" s="69" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="63" t="s">
-        <v>435</v>
-      </c>
-      <c r="G2" s="64" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="60" t="s">
+      <c r="D15" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="59">
+        <v>405</v>
+      </c>
+      <c r="G15" s="69" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="60" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="60" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="66" t="s">
-        <v>435</v>
-      </c>
-      <c r="G3" s="64" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="67">
-        <v>25689545</v>
-      </c>
-      <c r="C4" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="60" t="s">
+      <c r="B16" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="65">
-        <v>400</v>
-      </c>
-      <c r="G4" s="64" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="60" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="65">
-        <v>400</v>
-      </c>
-      <c r="G5" s="72" t="s">
+      <c r="E16" s="63" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="65" t="s">
+      <c r="F16" s="59">
+        <v>405</v>
+      </c>
+      <c r="G16" s="69" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="60" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="65">
-        <v>400</v>
-      </c>
-      <c r="G6" s="72" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="65">
-        <v>400</v>
-      </c>
-      <c r="G7" s="72" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="65">
-        <v>5689562</v>
-      </c>
-      <c r="B8" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="60" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="65">
-        <v>400</v>
-      </c>
-      <c r="G8" s="72" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="65" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="60" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="65">
-        <v>400</v>
-      </c>
-      <c r="G9" s="72" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="60" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="65">
-        <v>400</v>
-      </c>
-      <c r="G10" s="72" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="60" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="65">
-        <v>400</v>
-      </c>
-      <c r="G11" s="72" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="65">
-        <v>400</v>
-      </c>
-      <c r="G12" s="72" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="68" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="60" t="s">
+      <c r="B17" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="65">
-        <v>400</v>
-      </c>
-      <c r="G13" s="64" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="61" t="s">
+      <c r="F17" s="59">
+        <v>401</v>
+      </c>
+      <c r="G17" s="69" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="62" t="s">
+      <c r="B18" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="62" t="s">
+      <c r="C18" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="65">
-        <v>400</v>
-      </c>
-      <c r="G14" s="72" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="61" t="s">
+      <c r="F18" s="59">
+        <v>400</v>
+      </c>
+      <c r="G18" s="69" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="62" t="s">
+      <c r="B19" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="62" t="s">
+      <c r="C19" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="70" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="65">
-        <v>405</v>
-      </c>
-      <c r="G15" s="72" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="61" t="s">
+      <c r="F19" s="59">
+        <v>400</v>
+      </c>
+      <c r="G19" s="69" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="62" t="s">
+      <c r="B20" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="62" t="s">
+      <c r="C20" s="59">
+        <v>0.5</v>
+      </c>
+      <c r="D20" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="70" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="65">
-        <v>405</v>
-      </c>
-      <c r="G16" s="72" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="61" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="65">
-        <v>401</v>
-      </c>
-      <c r="G17" s="72" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="61" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="65">
-        <v>400</v>
-      </c>
-      <c r="G18" s="72" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="61" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="65">
-        <v>400</v>
-      </c>
-      <c r="G19" s="72" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="61" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="60">
-        <v>0.5</v>
-      </c>
-      <c r="D20" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="65">
-        <v>400</v>
-      </c>
-      <c r="G20" s="72" t="s">
-        <v>52</v>
+      <c r="F20" s="59">
+        <v>400</v>
+      </c>
+      <c r="G20" s="69" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -3140,8 +3136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E0AEB0D-04C6-411A-A81A-8D1CA7BB9BBE}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:I14"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3162,29 +3158,29 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="73" t="s">
-        <v>108</v>
-      </c>
-      <c r="D1" s="73" t="s">
+      <c r="B1" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="73" t="s">
-        <v>107</v>
-      </c>
-      <c r="F1" s="73" t="s">
-        <v>63</v>
-      </c>
-      <c r="G1" s="73" t="s">
+      <c r="E1" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="73" t="s">
+      <c r="H1" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="73" t="s">
-        <v>113</v>
+      <c r="I1" s="64" t="s">
+        <v>109</v>
       </c>
       <c r="J1" s="1"/>
     </row>
@@ -3193,19 +3189,19 @@
         <v>4</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C2" s="54" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D2" s="54" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="54" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F2" s="54" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G2" s="54"/>
       <c r="H2" s="55">
@@ -3220,28 +3216,28 @@
     </row>
     <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B3" s="54" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C3" s="54"/>
       <c r="D3" s="54" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E3" s="54" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F3" s="54" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G3" s="54" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H3" s="54">
         <v>404</v>
       </c>
-      <c r="I3" s="74"/>
+      <c r="I3" s="65"/>
       <c r="J3" s="17"/>
       <c r="L3">
         <v>1</v>
@@ -3249,24 +3245,24 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="54" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C4" s="54"/>
       <c r="D4" s="54"/>
       <c r="E4" s="54" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F4" s="54" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G4" s="54" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H4" s="54">
         <v>404</v>
       </c>
-      <c r="I4" s="74" t="s">
-        <v>114</v>
+      <c r="I4" s="65" t="s">
+        <v>110</v>
       </c>
       <c r="J4" s="17"/>
       <c r="L4">
@@ -3278,25 +3274,25 @@
         <v>26530</v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C5" s="54"/>
       <c r="D5" s="54">
         <v>12356</v>
       </c>
       <c r="E5" s="54" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F5" s="54" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G5" s="54" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H5" s="54">
         <v>404</v>
       </c>
-      <c r="I5" s="74"/>
+      <c r="I5" s="65"/>
       <c r="J5" s="17"/>
       <c r="L5">
         <v>3</v>
@@ -3304,28 +3300,28 @@
     </row>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B6" s="54" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C6" s="54"/>
       <c r="D6" s="54" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E6" s="54" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F6" s="54" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G6" s="54" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H6" s="54">
         <v>404</v>
       </c>
-      <c r="I6" s="74"/>
+      <c r="I6" s="65"/>
       <c r="J6" s="17"/>
       <c r="L6">
         <v>4</v>
@@ -3333,28 +3329,28 @@
     </row>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B7" s="54" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C7" s="54"/>
       <c r="D7" s="54" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E7" s="54" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F7" s="54" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G7" s="54" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H7" s="54">
         <v>404</v>
       </c>
-      <c r="I7" s="74"/>
+      <c r="I7" s="65"/>
       <c r="J7" s="17"/>
       <c r="L7">
         <v>5</v>
@@ -3362,28 +3358,28 @@
     </row>
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="54" t="s">
         <v>57</v>
-      </c>
-      <c r="B8" s="54" t="s">
-        <v>61</v>
       </c>
       <c r="C8" s="54"/>
       <c r="D8" s="54" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E8" s="54" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F8" s="54" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G8" s="54" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H8" s="54">
         <v>404</v>
       </c>
-      <c r="I8" s="74"/>
+      <c r="I8" s="65"/>
       <c r="J8" s="17"/>
       <c r="L8">
         <v>6</v>
@@ -3394,28 +3390,28 @@
         <v>4</v>
       </c>
       <c r="B9" s="54" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C9" s="54"/>
       <c r="D9" s="54" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="54" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F9" s="54" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G9" s="54" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H9" s="54">
         <v>405</v>
       </c>
-      <c r="I9" s="74"/>
+      <c r="I9" s="65"/>
       <c r="J9" s="17"/>
       <c r="K9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L9">
         <v>7</v>
@@ -3426,28 +3422,28 @@
         <v>4</v>
       </c>
       <c r="B10" s="54" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C10" s="54"/>
       <c r="D10" s="54" t="s">
         <v>3</v>
       </c>
       <c r="E10" s="54" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F10" s="54" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G10" s="54" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H10" s="54">
         <v>405</v>
       </c>
-      <c r="I10" s="74"/>
+      <c r="I10" s="65"/>
       <c r="J10" s="17"/>
       <c r="K10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="L10">
         <v>8</v>
@@ -3458,28 +3454,28 @@
         <v>4</v>
       </c>
       <c r="B11" s="54" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C11" s="54"/>
       <c r="D11" s="54" t="s">
         <v>3</v>
       </c>
       <c r="E11" s="54" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F11" s="54" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G11" s="54" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H11" s="54">
         <v>405</v>
       </c>
-      <c r="I11" s="74"/>
+      <c r="I11" s="65"/>
       <c r="J11" s="17"/>
       <c r="K11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="L11">
         <v>9</v>
@@ -3490,28 +3486,28 @@
         <v>4</v>
       </c>
       <c r="B12" s="54" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C12" s="54"/>
       <c r="D12" s="54" t="s">
         <v>3</v>
       </c>
       <c r="E12" s="54" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F12" s="54" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G12" s="54"/>
       <c r="H12" s="54">
         <v>401</v>
       </c>
-      <c r="I12" s="75" t="s">
-        <v>60</v>
+      <c r="I12" s="66" t="s">
+        <v>56</v>
       </c>
       <c r="J12" s="18"/>
       <c r="K12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="L12">
         <v>10</v>
@@ -3521,7 +3517,7 @@
       <c r="B13" s="54"/>
       <c r="C13" s="54"/>
       <c r="D13" s="54" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E13" s="54"/>
       <c r="F13" s="54"/>
@@ -3572,10 +3568,10 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C1" s="40" t="s">
         <v>6</v>
@@ -3584,214 +3580,214 @@
         <v>7</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="41" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E2" s="42">
         <v>200</v>
       </c>
       <c r="F2" s="42" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G2" s="42" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="H2" s="42" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="41" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E3" s="42">
         <v>200</v>
       </c>
       <c r="F3" s="42" t="s">
+        <v>370</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>373</v>
+      </c>
+      <c r="H3" s="42" t="s">
         <v>374</v>
-      </c>
-      <c r="G3" s="42" t="s">
-        <v>377</v>
-      </c>
-      <c r="H3" s="42" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="41" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E4" s="42">
         <v>404</v>
       </c>
       <c r="F4" s="42" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G4" s="44"/>
       <c r="H4" s="44"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="41" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E5" s="42">
         <v>404</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G5" s="44"/>
       <c r="H5" s="44"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="41" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E6" s="42">
         <v>404</v>
       </c>
       <c r="F6" s="42" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G6" s="44"/>
       <c r="H6" s="44"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="41" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E7" s="42">
         <v>404</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G7" s="44"/>
       <c r="H7" s="44"/>
     </row>
     <row r="8" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="41" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D8" s="44"/>
       <c r="E8" s="42">
         <v>400</v>
       </c>
       <c r="F8" s="42" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="G8" s="44"/>
       <c r="H8" s="44"/>
     </row>
     <row r="9" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="41" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C9" s="44"/>
       <c r="D9" s="42" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E9" s="42">
         <v>400</v>
       </c>
       <c r="F9" s="42" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
     </row>
     <row r="10" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="41" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B10" s="44"/>
       <c r="C10" s="42" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E10" s="42">
         <v>405</v>
       </c>
       <c r="F10" s="42" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G10" s="44"/>
       <c r="H10" s="44"/>
@@ -3799,19 +3795,19 @@
     <row r="11" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="45"/>
       <c r="B11" s="42" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E11" s="42">
         <v>405</v>
       </c>
       <c r="F11" s="42" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G11" s="44"/>
       <c r="H11" s="44"/>
@@ -3857,101 +3853,101 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C2" s="23">
         <v>200</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>432</v>
+        <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C3" s="23">
         <v>200</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C4" s="23">
         <v>404</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B5" s="25"/>
       <c r="C5" s="23">
         <v>404</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23"/>
       <c r="B6" s="25" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C6" s="23">
         <v>404</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C7" s="23">
         <v>400</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C8" s="23">
         <v>404</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B9" s="23">
         <v>1234</v>
@@ -3960,7 +3956,7 @@
         <v>404</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -4124,10 +4120,10 @@
         <v>401</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -4147,10 +4143,10 @@
         <v>401</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -4170,10 +4166,10 @@
         <v>401</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -4193,10 +4189,10 @@
         <v>401</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -4216,21 +4212,21 @@
         <v>401</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
@@ -4239,18 +4235,18 @@
         <v>400</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
         <v>36</v>
-      </c>
-      <c r="B13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
       </c>
       <c r="D13" t="s">
         <v>11</v>
@@ -4259,18 +4255,18 @@
         <v>400</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
         <v>11</v>
@@ -4279,27 +4275,27 @@
         <v>400</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
         <v>36</v>
       </c>
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="6">
+        <v>400</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="D15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="6">
-        <v>400</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -4327,10 +4323,10 @@
         <v>400</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -4494,10 +4490,10 @@
         <v>401</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -4517,10 +4513,10 @@
         <v>401</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -4540,10 +4536,10 @@
         <v>401</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -4563,10 +4559,10 @@
         <v>401</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -4586,21 +4582,21 @@
         <v>401</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
@@ -4609,18 +4605,18 @@
         <v>400</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
         <v>36</v>
-      </c>
-      <c r="B13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
       </c>
       <c r="D13" t="s">
         <v>11</v>
@@ -4629,18 +4625,18 @@
         <v>400</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
         <v>11</v>
@@ -4649,27 +4645,27 @@
         <v>400</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
         <v>36</v>
       </c>
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="6">
+        <v>400</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="D15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="6">
-        <v>400</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -4697,10 +4693,10 @@
         <v>400</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -4730,52 +4726,52 @@
   <sheetData>
     <row r="1" spans="1:17" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="G1" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="H1" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="L1" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="O1" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="28" t="s">
         <v>80</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="O1" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="P1" s="28" t="s">
-        <v>84</v>
       </c>
       <c r="Q1" s="26" t="s">
         <v>19</v>
@@ -4783,265 +4779,265 @@
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="G2" s="10" t="s">
         <v>165</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>169</v>
       </c>
       <c r="H2" s="29">
         <v>365678</v>
       </c>
       <c r="I2" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="N2" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="O2" s="26" t="s">
         <v>171</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="O2" s="26" t="s">
-        <v>175</v>
       </c>
       <c r="P2" s="19">
         <v>200</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="G3" s="10" t="s">
         <v>165</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>169</v>
       </c>
       <c r="H3" s="19">
         <v>749374</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="P3" s="19">
         <v>400</v>
       </c>
       <c r="Q3" s="26" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="37"/>
       <c r="B4" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="G4" s="10" t="s">
         <v>165</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>169</v>
       </c>
       <c r="H4" s="19">
         <v>37585</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="O4" s="26" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="P4" s="19">
         <v>400</v>
       </c>
       <c r="Q4" s="26" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="37" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B5" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="G5" s="30" t="s">
         <v>165</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>168</v>
-      </c>
-      <c r="G5" s="30" t="s">
-        <v>169</v>
       </c>
       <c r="H5" s="32">
         <v>9837484</v>
       </c>
       <c r="I5" s="30" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J5" s="30" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K5" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L5" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M5" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N5" s="30" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="O5" s="30" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="P5" s="32">
         <v>400</v>
       </c>
       <c r="Q5" s="30" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="37" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="G6" s="10" t="s">
         <v>165</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>169</v>
       </c>
       <c r="H6" s="19">
         <v>8726473</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="O6" s="26" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="P6" s="19">
         <v>400</v>
       </c>
       <c r="Q6" s="26" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="30" thickBot="1" x14ac:dyDescent="0.3">
@@ -5049,861 +5045,861 @@
         <v>9843</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="G7" s="10" t="s">
         <v>165</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>169</v>
       </c>
       <c r="H7" s="19">
         <v>483947</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="O7" s="26" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P7" s="19">
         <v>400</v>
       </c>
       <c r="Q7" s="26" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="37" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="G8" s="10" t="s">
         <v>165</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>169</v>
       </c>
       <c r="H8" s="19">
         <v>33445435</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="P8" s="19">
         <v>400</v>
       </c>
       <c r="Q8" s="26" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C9" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>165</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>169</v>
       </c>
       <c r="H9" s="19">
         <v>5546546</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="P9" s="19">
         <v>400</v>
       </c>
       <c r="Q9" s="26" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B10" s="32">
         <v>38485</v>
       </c>
       <c r="C10" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>165</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>169</v>
       </c>
       <c r="H10" s="19">
         <v>56394</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="O10" s="26" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="P10" s="19">
         <v>400</v>
       </c>
       <c r="Q10" s="26" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C11" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="G11" s="10" t="s">
         <v>165</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>169</v>
       </c>
       <c r="H11" s="19">
         <v>2345466</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="P11" s="19">
         <v>400</v>
       </c>
       <c r="Q11" s="26" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C12" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="G12" s="10" t="s">
         <v>165</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>169</v>
       </c>
       <c r="H12" s="19">
         <v>2345436</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="P12" s="19">
         <v>400</v>
       </c>
       <c r="Q12" s="26" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="G13" s="10" t="s">
         <v>165</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>169</v>
       </c>
       <c r="H13" s="19">
         <v>266322222</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="P13" s="19">
         <v>400</v>
       </c>
       <c r="Q13" s="26" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="F14" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="G14" s="10" t="s">
         <v>165</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>215</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>169</v>
       </c>
       <c r="H14" s="19">
         <v>592748</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="O14" s="26" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="P14" s="19">
         <v>400</v>
       </c>
       <c r="Q14" s="26" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E15" s="32">
         <v>1234</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H15" s="19">
         <v>493659</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="O15" s="26" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="P15" s="19">
         <v>400</v>
       </c>
       <c r="Q15" s="26" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B16" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="G16" s="10" t="s">
         <v>165</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E16" s="30" t="s">
-        <v>222</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>169</v>
       </c>
       <c r="H16" s="19">
         <v>603820</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="O16" s="26" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="P16" s="19">
         <v>400</v>
       </c>
       <c r="Q16" s="26" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E17" s="30"/>
       <c r="F17" s="10" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H17" s="19">
         <v>5756048</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="O17" s="26" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="P17" s="19">
         <v>400</v>
       </c>
       <c r="Q17" s="26" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B18" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="F18" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="G18" s="10" t="s">
         <v>165</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>228</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>169</v>
       </c>
       <c r="H18" s="19">
         <v>493048</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="O18" s="26" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="P18" s="19">
         <v>400</v>
       </c>
       <c r="Q18" s="26" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F19" s="32">
         <v>7834</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H19" s="19">
         <v>9837</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="O19" s="26" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="P19" s="19">
         <v>400</v>
       </c>
       <c r="Q19" s="26" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C20" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="G20" s="10" t="s">
         <v>165</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="F20" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>169</v>
       </c>
       <c r="H20" s="19">
         <v>829038</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N20" s="33" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="O20" s="26" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="P20" s="19">
         <v>400</v>
       </c>
       <c r="Q20" s="26" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C21" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="G21" s="10" t="s">
         <v>165</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>239</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>169</v>
       </c>
       <c r="H21" s="19">
         <v>2648</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N21" s="10" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="O21" s="26" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="P21" s="19">
         <v>400</v>
       </c>
       <c r="Q21" s="26" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F22" s="30"/>
       <c r="G22" s="10" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H22" s="19">
         <v>40827</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N22" s="33" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="O22" s="26" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="P22" s="19">
         <v>400</v>
       </c>
       <c r="Q22" s="26" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B23" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F23" s="10" t="s">
         <v>164</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>168</v>
       </c>
       <c r="G23" s="32">
         <v>3937</v>
@@ -5912,421 +5908,421 @@
         <v>39836</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M23" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N23" s="10" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="O23" s="26" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="P23" s="19">
         <v>400</v>
       </c>
       <c r="Q23" s="26" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B24" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F24" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C24" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>168</v>
-      </c>
       <c r="G24" s="30" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H24" s="19">
         <v>9752</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N24" s="10" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="O24" s="26" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="P24" s="19">
         <v>400</v>
       </c>
       <c r="Q24" s="26" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B25" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F25" s="10" t="s">
         <v>164</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>168</v>
       </c>
       <c r="G25" s="30"/>
       <c r="H25" s="19">
         <v>8242</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N25" s="33" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="O25" s="26" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="P25" s="19">
         <v>400</v>
       </c>
       <c r="Q25" s="26" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B26" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F26" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C26" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>168</v>
-      </c>
       <c r="G26" s="30" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="H26" s="19">
         <v>35728</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M26" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N26" s="10" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="O26" s="26" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="P26" s="19">
         <v>400</v>
       </c>
       <c r="Q26" s="26" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B27" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F27" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="G27" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="D27" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E27" s="10" t="s">
+      <c r="H27" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="J27" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="K27" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="G27" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="H27" s="30" t="s">
-        <v>260</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="K27" s="10" t="s">
-        <v>172</v>
-      </c>
       <c r="L27" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M27" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="O27" s="26" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="P27" s="19">
         <v>400</v>
       </c>
       <c r="Q27" s="26" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B28" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F28" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="G28" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="D28" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E28" s="10" t="s">
+      <c r="H28" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="J28" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="K28" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="G28" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="H28" s="30" t="s">
-        <v>264</v>
-      </c>
-      <c r="I28" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="J28" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="K28" s="10" t="s">
-        <v>172</v>
-      </c>
       <c r="L28" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N28" s="33" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="O28" s="26" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="P28" s="19">
         <v>400</v>
       </c>
       <c r="Q28" s="26" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B29" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F29" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="G29" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E29" s="10" t="s">
+      <c r="H29" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="J29" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="K29" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="G29" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="H29" s="30" t="s">
-        <v>268</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="J29" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="K29" s="10" t="s">
-        <v>172</v>
-      </c>
       <c r="L29" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M29" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N29" s="10" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="O29" s="26" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="P29" s="19">
         <v>400</v>
       </c>
       <c r="Q29" s="26" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="20" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B30" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F30" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="G30" s="10" t="s">
         <v>165</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>169</v>
       </c>
       <c r="H30" s="30"/>
       <c r="I30" s="10" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N30" s="33" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="O30" s="26" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="P30" s="19">
         <v>400</v>
       </c>
       <c r="Q30" s="26" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B31" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F31" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="G31" s="10" t="s">
         <v>165</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>169</v>
       </c>
       <c r="H31" s="19">
         <v>897384</v>
@@ -6335,1177 +6331,1177 @@
         <v>984639</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M31" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N31" s="33" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="O31" s="26" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="P31" s="19">
         <v>400</v>
       </c>
       <c r="Q31" s="26" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="20" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B32" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F32" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="G32" s="10" t="s">
         <v>165</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>169</v>
       </c>
       <c r="H32" s="29">
         <v>458652</v>
       </c>
       <c r="I32" s="30" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N32" s="33" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="O32" s="26" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="P32" s="19">
         <v>400</v>
       </c>
       <c r="Q32" s="26" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="36" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B33" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F33" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="G33" s="10" t="s">
         <v>165</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>169</v>
       </c>
       <c r="H33" s="29">
         <v>1589526</v>
       </c>
       <c r="I33" s="30"/>
       <c r="J33" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L33" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M33" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N33" s="33" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="O33" s="26" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="P33" s="19">
         <v>400</v>
       </c>
       <c r="Q33" s="26" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="36" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B34" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F34" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C34" s="26" t="s">
+      <c r="G34" s="10" t="s">
         <v>165</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>169</v>
       </c>
       <c r="H34" s="29">
         <v>758963258</v>
       </c>
       <c r="I34" s="30" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M34" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N34" s="33" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="O34" s="26" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="P34" s="19">
         <v>400</v>
       </c>
       <c r="Q34" s="26" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="36" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B35" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F35" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C35" s="26" t="s">
+      <c r="G35" s="10" t="s">
         <v>165</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>169</v>
       </c>
       <c r="H35" s="29">
         <v>15235956</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="J35" s="30" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M35" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N35" s="33" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="O35" s="26" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="P35" s="19">
         <v>400</v>
       </c>
       <c r="Q35" s="26" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="36" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B36" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F36" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C36" s="26" t="s">
+      <c r="G36" s="10" t="s">
         <v>165</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>169</v>
       </c>
       <c r="H36" s="29">
         <v>35984562</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="J36" s="30" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M36" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N36" s="33" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="O36" s="26" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="P36" s="19">
         <v>400</v>
       </c>
       <c r="Q36" s="26" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="36" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B37" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F37" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="G37" s="10" t="s">
         <v>165</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="G37" s="10" t="s">
-        <v>169</v>
       </c>
       <c r="H37" s="29">
         <v>45896522</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="J37" s="32">
         <v>8798</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L37" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M37" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N37" s="33" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="O37" s="26" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="P37" s="19">
         <v>400</v>
       </c>
       <c r="Q37" s="26" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="36" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B38" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F38" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C38" s="26" t="s">
+      <c r="G38" s="10" t="s">
         <v>165</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>169</v>
       </c>
       <c r="H38" s="29">
         <v>6325987</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="J38" s="30" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M38" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N38" s="33" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="O38" s="26" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="P38" s="19">
         <v>400</v>
       </c>
       <c r="Q38" s="26" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="36" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B39" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F39" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C39" s="26" t="s">
+      <c r="G39" s="10" t="s">
         <v>165</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>169</v>
       </c>
       <c r="H39" s="29">
         <v>1589632</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="J39" s="30" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L39" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M39" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N39" s="33" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="O39" s="26" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="P39" s="19">
         <v>400</v>
       </c>
       <c r="Q39" s="26" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="36" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B40" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F40" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="G40" s="10" t="s">
         <v>165</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>169</v>
       </c>
       <c r="H40" s="29">
         <v>452308</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="J40" s="30" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M40" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N40" s="33" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="O40" s="26" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="P40" s="19">
         <v>400</v>
       </c>
       <c r="Q40" s="26" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="36" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B41" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F41" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C41" s="26" t="s">
+      <c r="G41" s="10" t="s">
         <v>165</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>169</v>
       </c>
       <c r="H41" s="29">
         <v>6520358</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="J41" s="30"/>
       <c r="K41" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L41" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M41" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N41" s="33" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="O41" s="26" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="P41" s="19">
         <v>400</v>
       </c>
       <c r="Q41" s="26" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="36" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B42" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F42" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C42" s="26" t="s">
+      <c r="G42" s="10" t="s">
         <v>165</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>169</v>
       </c>
       <c r="H42" s="29">
         <v>1203482</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K42" s="32">
         <v>8989</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M42" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N42" s="33" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="O42" s="26" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="P42" s="19">
         <v>400</v>
       </c>
       <c r="Q42" s="26" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="36" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B43" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F43" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C43" s="26" t="s">
+      <c r="G43" s="10" t="s">
         <v>165</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>169</v>
       </c>
       <c r="H43" s="29">
         <v>7025630</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K43" s="30" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="L43" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M43" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N43" s="33" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="O43" s="26" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="P43" s="19">
         <v>400</v>
       </c>
       <c r="Q43" s="26" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="36" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B44" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F44" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C44" s="26" t="s">
+      <c r="G44" s="10" t="s">
         <v>165</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>169</v>
       </c>
       <c r="H44" s="29">
         <v>4856012560</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K44" s="30"/>
       <c r="L44" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M44" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N44" s="33" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="O44" s="26" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="P44" s="19">
         <v>400</v>
       </c>
       <c r="Q44" s="26" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="36" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B45" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F45" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C45" s="26" t="s">
+      <c r="G45" s="10" t="s">
         <v>165</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>169</v>
       </c>
       <c r="H45" s="29">
         <v>60125485369</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="J45" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L45" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M45" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N45" s="34">
         <v>28732</v>
       </c>
       <c r="O45" s="26" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="P45" s="19">
         <v>400</v>
       </c>
       <c r="Q45" s="30" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="36" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B46" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C46" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F46" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C46" s="26" t="s">
+      <c r="G46" s="10" t="s">
         <v>165</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>169</v>
       </c>
       <c r="H46" s="29">
         <v>503695522</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M46" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N46" s="30" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="O46" s="26" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="P46" s="19">
         <v>400</v>
       </c>
       <c r="Q46" s="30" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="36" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B47" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F47" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C47" s="26" t="s">
+      <c r="G47" s="10" t="s">
         <v>165</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="G47" s="10" t="s">
-        <v>169</v>
       </c>
       <c r="H47" s="29">
         <v>6213501</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="J47" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L47" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M47" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N47" s="30"/>
       <c r="O47" s="26" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="P47" s="19">
         <v>400</v>
       </c>
       <c r="Q47" s="30" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="36" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B48" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C48" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F48" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="G48" s="10" t="s">
         <v>165</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="G48" s="10" t="s">
-        <v>169</v>
       </c>
       <c r="H48" s="29">
         <v>5012698520</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L48" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M48" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N48" s="30" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="O48" s="26" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="P48" s="19">
         <v>400</v>
       </c>
       <c r="Q48" s="30" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="36" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B49" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C49" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F49" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C49" s="26" t="s">
+      <c r="G49" s="10" t="s">
         <v>165</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="G49" s="10" t="s">
-        <v>169</v>
       </c>
       <c r="H49" s="29">
         <v>360125632</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L49" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M49" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N49" s="30" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="O49" s="26" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="P49" s="19">
         <v>400</v>
       </c>
       <c r="Q49" s="30" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="36" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B50" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C50" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F50" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C50" s="26" t="s">
+      <c r="G50" s="10" t="s">
         <v>165</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="G50" s="10" t="s">
-        <v>169</v>
       </c>
       <c r="H50" s="29">
         <v>6302158963</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K50" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L50" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M50" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N50" s="30" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="O50" s="26" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="P50" s="19">
         <v>400</v>
       </c>
       <c r="Q50" s="30" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="36" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B51" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C51" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F51" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C51" s="26" t="s">
+      <c r="G51" s="10" t="s">
         <v>165</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="G51" s="10" t="s">
-        <v>169</v>
       </c>
       <c r="H51" s="29">
         <v>36520125</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="J51" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K51" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L51" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M51" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N51" s="26" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="O51" s="31" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="P51" s="19">
         <v>400</v>
       </c>
       <c r="Q51" s="26" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="52" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="36" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B52" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C52" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F52" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C52" s="26" t="s">
+      <c r="G52" s="10" t="s">
         <v>165</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="F52" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="G52" s="10" t="s">
-        <v>169</v>
       </c>
       <c r="H52" s="29">
         <v>620365201</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="J52" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K52" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L52" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M52" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N52" s="26" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="O52" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="P52" s="19">
         <v>400</v>
       </c>
       <c r="Q52" s="26" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="36" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B53" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C53" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F53" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C53" s="26" t="s">
+      <c r="G53" s="10" t="s">
         <v>165</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="F53" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="G53" s="10" t="s">
-        <v>169</v>
       </c>
       <c r="H53" s="29">
         <v>950326501</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="J53" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K53" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L53" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M53" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N53" s="26" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="O53" s="35">
         <v>9856</v>
@@ -7514,323 +7510,323 @@
         <v>400</v>
       </c>
       <c r="Q53" s="26" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="54" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="36" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B54" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F54" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C54" s="26" t="s">
+      <c r="G54" s="10" t="s">
         <v>165</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="F54" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="G54" s="10" t="s">
-        <v>169</v>
       </c>
       <c r="H54" s="29">
         <v>5630021452</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="J54" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K54" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L54" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M54" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N54" s="26" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="O54" s="31" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="P54" s="19">
         <v>400</v>
       </c>
       <c r="Q54" s="26" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="55" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="36" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B55" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C55" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F55" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C55" s="26" t="s">
+      <c r="G55" s="10" t="s">
         <v>165</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="F55" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="G55" s="10" t="s">
-        <v>169</v>
       </c>
       <c r="H55" s="29">
         <v>450369882</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="J55" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K55" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L55" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M55" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N55" s="26" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="O55" s="31" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="P55" s="19">
         <v>400</v>
       </c>
       <c r="Q55" s="26" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="56" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="36" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B56" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C56" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F56" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C56" s="26" t="s">
+      <c r="G56" s="10" t="s">
         <v>165</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="F56" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="G56" s="10" t="s">
-        <v>169</v>
       </c>
       <c r="H56" s="29">
         <v>1578520</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="J56" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K56" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L56" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M56" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N56" s="26" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="O56" s="31"/>
       <c r="P56" s="19">
         <v>400</v>
       </c>
       <c r="Q56" s="26" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="57" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="36" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B57" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F57" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C57" s="26" t="s">
+      <c r="G57" s="10" t="s">
         <v>165</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="F57" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="G57" s="10" t="s">
-        <v>169</v>
       </c>
       <c r="H57" s="29">
         <v>58962014</v>
       </c>
       <c r="I57" s="10" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="J57" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K57" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L57" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M57" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N57" s="26" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="O57" s="31" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="P57" s="19">
         <v>400</v>
       </c>
       <c r="Q57" s="26" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="58" spans="1:17" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="36" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B58" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C58" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F58" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C58" s="26" t="s">
+      <c r="G58" s="10" t="s">
         <v>165</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="F58" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="G58" s="10" t="s">
-        <v>169</v>
       </c>
       <c r="H58" s="19">
         <v>565465476</v>
       </c>
       <c r="I58" s="30" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="J58" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K58" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L58" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M58" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N58" s="26" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="O58" s="10" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="P58" s="19">
         <v>400</v>
       </c>
       <c r="Q58" s="30" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="59" spans="1:17" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="36" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B59" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C59" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F59" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C59" s="26" t="s">
+      <c r="G59" s="10" t="s">
         <v>165</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E59" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="F59" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="G59" s="10" t="s">
-        <v>169</v>
       </c>
       <c r="H59" s="32">
         <v>565465476</v>
       </c>
       <c r="I59" s="10" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="J59" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K59" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L59" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M59" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N59" s="26" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="O59" s="10" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="P59" s="19">
         <v>400</v>
       </c>
       <c r="Q59" s="30" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="60" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7871,46 +7867,46 @@
     <row r="1" spans="1:15" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10"/>
       <c r="B1" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>80</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7918,43 +7914,43 @@
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>93</v>
       </c>
       <c r="K2" s="11">
         <v>123456789</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="O2" s="11">
         <v>200</v>
@@ -7982,43 +7978,43 @@
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="G4" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="H4" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="J4" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>93</v>
       </c>
       <c r="K4" s="11">
         <v>123456789</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="O4" s="11">
         <v>400</v>
@@ -8029,43 +8025,43 @@
         <v>2</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D5" s="14">
         <v>66859723</v>
       </c>
       <c r="E5" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="I5" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="J5" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>93</v>
       </c>
       <c r="K5" s="11">
         <v>123456789</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="O5" s="11">
         <v>400</v>
@@ -8076,41 +8072,41 @@
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="I6" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="J6" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>93</v>
       </c>
       <c r="K6" s="11">
         <v>123456789</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="O6" s="11">
         <v>400</v>
@@ -8121,41 +8117,41 @@
         <v>4</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="I7" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="J7" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>93</v>
       </c>
       <c r="K7" s="11">
         <v>123456789</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="O7" s="11">
         <v>404</v>
@@ -8183,43 +8179,43 @@
         <v>5</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="G9" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="H9" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="F9" s="10" t="s">
+      <c r="I9" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="J9" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>93</v>
       </c>
       <c r="K9" s="11">
         <v>123456789</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="O9" s="11">
         <v>400</v>
@@ -8230,43 +8226,43 @@
         <v>6</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E10" s="13">
         <v>23456</v>
       </c>
       <c r="F10" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>93</v>
       </c>
       <c r="K10" s="11">
         <v>123456789</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="O10" s="11">
         <v>400</v>
@@ -8277,41 +8273,41 @@
         <v>7</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="J11" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>93</v>
       </c>
       <c r="K11" s="11">
         <v>123456789</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="O11" s="11">
         <v>400</v>
@@ -8322,41 +8318,41 @@
         <v>8</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="J12" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>93</v>
       </c>
       <c r="K12" s="11">
         <v>123456789</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="O12" s="11">
         <v>404</v>
@@ -8384,43 +8380,43 @@
         <v>9</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="G14" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="H14" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="I14" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="J14" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="K14" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="L14" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="M14" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="N14" s="10" t="s">
         <v>92</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="K14" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="M14" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="N14" s="10" t="s">
-        <v>96</v>
       </c>
       <c r="O14" s="11">
         <v>400</v>
@@ -8431,43 +8427,43 @@
         <v>10</v>
       </c>
       <c r="B15" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="G15" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="H15" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="I15" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="J15" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="K15" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="L15" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="M15" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="N15" s="10" t="s">
         <v>92</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="L15" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="M15" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="N15" s="10" t="s">
-        <v>96</v>
       </c>
       <c r="O15" s="11">
         <v>400</v>
@@ -8478,41 +8474,41 @@
         <v>11</v>
       </c>
       <c r="B16" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="G16" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="H16" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="I16" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="J16" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>93</v>
       </c>
       <c r="K16" s="15"/>
       <c r="L16" s="12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="O16" s="11">
         <v>400</v>
@@ -8523,41 +8519,41 @@
         <v>12</v>
       </c>
       <c r="B17" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="G17" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="H17" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="I17" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="J17" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>93</v>
       </c>
       <c r="K17" s="15"/>
       <c r="L17" s="12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="O17" s="11">
         <v>404</v>
@@ -8586,43 +8582,43 @@
         <v>13</v>
       </c>
       <c r="B19" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="G19" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E19" s="10" t="s">
+      <c r="H19" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="I19" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="J19" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>93</v>
       </c>
       <c r="K19" s="11">
         <v>123456789</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="O19" s="11">
         <v>400</v>
@@ -8634,43 +8630,43 @@
         <v>14</v>
       </c>
       <c r="B20" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="G20" s="10" t="s">
         <v>86</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>90</v>
       </c>
       <c r="H20" s="14">
         <v>23456</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K20" s="11">
         <v>123456789</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N20" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="O20" s="11">
         <v>400</v>
@@ -8682,41 +8678,41 @@
         <v>15</v>
       </c>
       <c r="B21" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="G21" s="10" t="s">
         <v>86</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>90</v>
       </c>
       <c r="H21" s="15"/>
       <c r="I21" s="10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K21" s="11">
         <v>123456789</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N21" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="O21" s="11">
         <v>400</v>
@@ -8746,43 +8742,43 @@
         <v>16</v>
       </c>
       <c r="B23" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="G23" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="H23" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E23" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="F23" s="10" t="s">
+      <c r="I23" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="J23" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>93</v>
       </c>
       <c r="K23" s="11">
         <v>123456789</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M23" s="10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N23" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="O23" s="11">
         <v>400</v>
@@ -8794,43 +8790,43 @@
         <v>17</v>
       </c>
       <c r="B24" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="G24" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="H24" s="10" t="s">
         <v>87</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>91</v>
       </c>
       <c r="I24" s="14">
         <v>23456</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K24" s="11">
         <v>123456789</v>
       </c>
       <c r="L24" s="12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N24" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="O24" s="11">
         <v>400</v>
@@ -8842,41 +8838,41 @@
         <v>18</v>
       </c>
       <c r="B25" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="G25" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="H25" s="10" t="s">
         <v>87</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>91</v>
       </c>
       <c r="I25" s="15"/>
       <c r="J25" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K25" s="11">
         <v>123456789</v>
       </c>
       <c r="L25" s="12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="O25" s="11">
         <v>400</v>
@@ -8906,43 +8902,43 @@
         <v>19</v>
       </c>
       <c r="B27" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="G27" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="H27" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="I27" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F27" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>92</v>
-      </c>
       <c r="J27" s="13" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="K27" s="11">
         <v>123456789</v>
       </c>
       <c r="L27" s="12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M27" s="10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="O27" s="11">
         <v>400</v>
@@ -8954,28 +8950,28 @@
         <v>20</v>
       </c>
       <c r="B28" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F28" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="G28" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="H28" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="I28" s="10" t="s">
         <v>88</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="I28" s="10" t="s">
-        <v>92</v>
       </c>
       <c r="J28" s="14">
         <v>23456</v>
@@ -8984,13 +8980,13 @@
         <v>123456789</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="O28" s="11">
         <v>400</v>
@@ -9002,41 +8998,41 @@
         <v>21</v>
       </c>
       <c r="B29" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F29" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="G29" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="H29" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="I29" s="10" t="s">
         <v>88</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>92</v>
       </c>
       <c r="J29" s="15"/>
       <c r="K29" s="11">
         <v>123456789</v>
       </c>
       <c r="L29" s="12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M29" s="10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N29" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="O29" s="11">
         <v>400</v>
@@ -9119,31 +9115,31 @@
         <v>22</v>
       </c>
       <c r="B34" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F34" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="G34" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="H34" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="I34" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="J34" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="I34" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="J34" s="10" t="s">
-        <v>93</v>
       </c>
       <c r="K34" s="11">
         <v>123456789</v>
@@ -9152,10 +9148,10 @@
         <v>2345555</v>
       </c>
       <c r="M34" s="10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N34" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="O34" s="11">
         <v>400</v>
@@ -9166,43 +9162,43 @@
         <v>23</v>
       </c>
       <c r="B35" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F35" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="G35" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="H35" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="I35" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="J35" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="I35" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="J35" s="10" t="s">
-        <v>93</v>
       </c>
       <c r="K35" s="11">
         <v>123456789</v>
       </c>
       <c r="L35" s="14" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M35" s="10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N35" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="O35" s="11">
         <v>400</v>
@@ -9213,41 +9209,41 @@
         <v>24</v>
       </c>
       <c r="B36" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F36" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="G36" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="H36" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="I36" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="J36" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="I36" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="J36" s="10" t="s">
-        <v>93</v>
       </c>
       <c r="K36" s="11">
         <v>123456789</v>
       </c>
       <c r="L36" s="15"/>
       <c r="M36" s="10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N36" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="O36" s="11">
         <v>400</v>
@@ -9258,41 +9254,41 @@
         <v>25</v>
       </c>
       <c r="B37" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F37" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="G37" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="H37" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="I37" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="J37" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="G37" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H37" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="I37" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="J37" s="10" t="s">
-        <v>93</v>
       </c>
       <c r="K37" s="11">
         <v>123456789</v>
       </c>
       <c r="L37" s="15"/>
       <c r="M37" s="10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N37" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="O37" s="11">
         <v>404</v>
@@ -9303,43 +9299,43 @@
         <v>26</v>
       </c>
       <c r="B38" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F38" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="G38" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="H38" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="I38" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F38" s="10" t="s">
+      <c r="J38" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H38" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="I38" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="J38" s="10" t="s">
-        <v>93</v>
       </c>
       <c r="K38" s="11">
         <v>123456789</v>
       </c>
       <c r="L38" s="12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M38" s="14" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N38" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="O38" s="11">
         <v>400</v>
@@ -9350,43 +9346,43 @@
         <v>27</v>
       </c>
       <c r="B39" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F39" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="G39" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="H39" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E39" s="10" t="s">
+      <c r="I39" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F39" s="10" t="s">
+      <c r="J39" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H39" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="I39" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="J39" s="10" t="s">
-        <v>93</v>
       </c>
       <c r="K39" s="11">
         <v>123456789</v>
       </c>
       <c r="L39" s="12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M39" s="14">
         <v>23456</v>
       </c>
       <c r="N39" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="O39" s="11">
         <v>400</v>
@@ -9397,41 +9393,41 @@
         <v>28</v>
       </c>
       <c r="B40" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F40" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="G40" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="H40" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="I40" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="J40" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H40" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="I40" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="J40" s="10" t="s">
-        <v>93</v>
       </c>
       <c r="K40" s="11">
         <v>123456789</v>
       </c>
       <c r="L40" s="12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M40" s="15"/>
       <c r="N40" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="O40" s="11">
         <v>400</v>
@@ -9442,41 +9438,41 @@
         <v>29</v>
       </c>
       <c r="B41" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F41" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="G41" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="H41" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E41" s="10" t="s">
+      <c r="I41" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F41" s="10" t="s">
+      <c r="J41" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H41" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="I41" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="J41" s="10" t="s">
-        <v>93</v>
       </c>
       <c r="K41" s="11">
         <v>123456789</v>
       </c>
       <c r="L41" s="12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M41" s="15"/>
       <c r="N41" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="O41" s="11">
         <v>404</v>
@@ -9487,43 +9483,43 @@
         <v>30</v>
       </c>
       <c r="B42" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F42" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="G42" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="H42" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E42" s="10" t="s">
+      <c r="I42" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F42" s="10" t="s">
+      <c r="J42" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H42" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="I42" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="J42" s="10" t="s">
-        <v>93</v>
       </c>
       <c r="K42" s="11">
         <v>123456789</v>
       </c>
       <c r="L42" s="12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M42" s="10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N42" s="14" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="O42" s="11">
         <v>400</v>
@@ -9534,40 +9530,40 @@
         <v>31</v>
       </c>
       <c r="B43" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="G43" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="H43" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E43" s="10" t="s">
+      <c r="I43" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F43" s="10" t="s">
+      <c r="J43" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H43" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="I43" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="J43" s="10" t="s">
-        <v>93</v>
       </c>
       <c r="K43" s="11">
         <v>123456789</v>
       </c>
       <c r="L43" s="12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M43" s="10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N43" s="16">
         <v>23456</v>
@@ -9581,40 +9577,40 @@
         <v>32</v>
       </c>
       <c r="B44" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="G44" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="H44" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="I44" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F44" s="10" t="s">
+      <c r="J44" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H44" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="I44" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="J44" s="10" t="s">
-        <v>93</v>
       </c>
       <c r="K44" s="11">
         <v>123456789</v>
       </c>
       <c r="L44" s="12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M44" s="10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N44" s="15"/>
       <c r="O44" s="11">
@@ -9626,40 +9622,40 @@
         <v>33</v>
       </c>
       <c r="B45" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F45" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="G45" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="H45" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E45" s="10" t="s">
+      <c r="I45" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F45" s="10" t="s">
+      <c r="J45" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H45" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="I45" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="J45" s="10" t="s">
-        <v>93</v>
       </c>
       <c r="K45" s="11">
         <v>123456789</v>
       </c>
       <c r="L45" s="12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M45" s="10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N45" s="15"/>
       <c r="O45" s="11">
@@ -9671,43 +9667,43 @@
         <v>34</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C46" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G46" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="H46" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="I46" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F46" s="10" t="s">
+      <c r="J46" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="I46" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="J46" s="10" t="s">
-        <v>93</v>
       </c>
       <c r="K46" s="11">
         <v>123456789</v>
       </c>
       <c r="L46" s="12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M46" s="10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N46" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="O46" s="11">
         <v>400</v>
@@ -9718,43 +9714,43 @@
         <v>35</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D47" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="H47" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E47" s="10" t="s">
+      <c r="I47" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F47" s="10" t="s">
+      <c r="J47" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="G47" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H47" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="I47" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="J47" s="10" t="s">
-        <v>93</v>
       </c>
       <c r="K47" s="11">
         <v>123456789</v>
       </c>
       <c r="L47" s="12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M47" s="10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N47" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="O47" s="11">
         <v>400</v>
@@ -9765,43 +9761,43 @@
         <v>36</v>
       </c>
       <c r="B48" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F48" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C48" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="D48" s="10" t="s">
+      <c r="G48" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="H48" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E48" s="10" t="s">
+      <c r="I48" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F48" s="10" t="s">
+      <c r="J48" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="G48" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H48" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="I48" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="J48" s="10" t="s">
-        <v>93</v>
       </c>
       <c r="K48" s="11">
         <v>123456789</v>
       </c>
       <c r="L48" s="12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M48" s="10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N48" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="O48" s="11">
         <v>400</v>

--- a/src/test/resources/properties/DieticianAPI.xlsx
+++ b/src/test/resources/properties/DieticianAPI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cfb26f557d7176db/Desktop/NEWCLONE/APIDietician/src/test/resources/properties/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="675" documentId="13_ncr:801_{43A3D9C7-213D-4189-AF66-25386FDF7CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B349A246-04EB-49C8-B29B-8AE73835F024}"/>
+  <xr:revisionPtr revIDLastSave="680" documentId="13_ncr:801_{43A3D9C7-213D-4189-AF66-25386FDF7CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{851BFA31-C118-483B-AF35-D2CE9CA0287F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="982" activeTab="1" xr2:uid="{C4EDB30F-70E9-4635-AD8E-A92AAC9029B6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="982" activeTab="4" xr2:uid="{C4EDB30F-70E9-4635-AD8E-A92AAC9029B6}"/>
   </bookViews>
   <sheets>
     <sheet name="GETRecipes" sheetId="7" r:id="rId1"/>
@@ -1320,12 +1320,6 @@
     <t>PostMorbidity</t>
   </si>
   <si>
-    <t> Blood P%essu</t>
-  </si>
-  <si>
-    <t> BL_ 12</t>
-  </si>
-  <si>
     <t>THY_T4</t>
   </si>
   <si>
@@ -1344,10 +1338,16 @@
     <t>Missing Items Or Invalid Entry.Check on ['MorbidityTestName']</t>
   </si>
   <si>
-    <t>PreDiabetes8</t>
-  </si>
-  <si>
     <t>PreDiabetes9</t>
+  </si>
+  <si>
+    <t>PreDiabetes10</t>
+  </si>
+  <si>
+    <t> Pre Diatetes</t>
+  </si>
+  <si>
+    <t> PR_ LO</t>
   </si>
 </sst>
 </file>
@@ -2706,8 +2706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61799CA-678F-46A4-8B74-9041A1E48EF1}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2748,7 +2748,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B2" s="58" t="s">
         <v>20</v>
@@ -2760,10 +2760,10 @@
         <v>21</v>
       </c>
       <c r="E2" s="63" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F2" s="60" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G2" s="68" t="s">
         <v>144</v>
@@ -2771,7 +2771,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="58" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B3" s="58" t="s">
         <v>20</v>
@@ -2783,10 +2783,10 @@
         <v>11</v>
       </c>
       <c r="E3" s="59" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F3" s="60" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G3" s="68" t="s">
         <v>144</v>
@@ -2809,7 +2809,7 @@
         <v>400</v>
       </c>
       <c r="G4" s="69" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2823,7 +2823,7 @@
         <v>400</v>
       </c>
       <c r="G5" s="69" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2840,7 +2840,7 @@
         <v>400</v>
       </c>
       <c r="G6" s="69" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2977,7 +2977,7 @@
         <v>400</v>
       </c>
       <c r="G13" s="68" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2997,7 +2997,7 @@
         <v>400</v>
       </c>
       <c r="G14" s="69" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -3824,7 +3824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC21B07-E05A-4B54-8A43-2FA7DA1F2F32}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -3853,10 +3853,10 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="C2" s="23">
         <v>200</v>
@@ -3870,7 +3870,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C3" s="23">
         <v>200</v>
